--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_6_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_6_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1676033469945504</v>
+        <v>0.3084838516881472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1676033469945504</v>
+        <v>0.3084838516881472</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.647580235721756</v>
+        <v>4.803850128788172</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.9827686715579578, 13.27792914300147]</t>
+          <t>[-3.169235451164731, 12.776935708741075]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1430085869066031</v>
+        <v>0.231264555673405</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1430085869066031</v>
+        <v>0.231264555673405</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.754842935162929, 1.2075791581366166]</t>
+          <t>[-4.597606065613892, 1.4277107755052718]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2370871656504574</v>
+        <v>0.29497578537955</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2370871656504574</v>
+        <v>0.29497578537955</v>
       </c>
       <c r="T2" t="n">
-        <v>11.07139616476645</v>
+        <v>12.80377769712295</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.8114811033839615, 15.331311226148937]</t>
+          <t>[8.299006933732866, 17.308548460513034]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.196243773346708e-06</v>
+        <v>7.98946387270405e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.196243773346708e-06</v>
+        <v>7.98946387270405e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>7.167147147147297</v>
+        <v>6.349189189189314</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.879759759759859</v>
+        <v>-5.719309309309425</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.21405405405445</v>
+        <v>18.41768768768805</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1285205034180527</v>
+        <v>0.294536930802904</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1285205034180527</v>
+        <v>0.294536930802904</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.174745498268866</v>
+        <v>5.137904868018992</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.326918095117291, 14.676409091655023]</t>
+          <t>[-3.0069776735713223, 13.282787409609307]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1504609751072414</v>
+        <v>0.2104275023206255</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1504609751072414</v>
+        <v>0.2104275023206255</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.006315965113847</v>
+        <v>-1.597526594618233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.063000709147159, 2.0503687789194647]</t>
+          <t>[-4.509553418666429, 1.3145002294299628]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5106622719821332</v>
+        <v>0.2750631490178175</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5106622719821332</v>
+        <v>0.2750631490178175</v>
       </c>
       <c r="T3" t="n">
-        <v>11.69735402546059</v>
+        <v>12.00415625450345</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.345839123933459, 16.04886892698773]</t>
+          <t>[7.280562694352515, 16.727749814654377]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.291133199161521e-06</v>
+        <v>6.194149228644363e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.291133199161521e-06</v>
+        <v>6.194149228644363e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>4.066466466466551</v>
+        <v>6.399579579579708</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.285425425425597</v>
+        <v>-5.265795795795896</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.4183583583587</v>
+        <v>18.06495495495531</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2407112475619965</v>
+        <v>0.4044655740108842</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2407112475619965</v>
+        <v>0.4044655740108842</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.337720291988864</v>
+        <v>5.044065612834533</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.7830926487235885, 13.458533232701317]</t>
+          <t>[-4.316092586008487, 14.404223811677554]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1922394878068125</v>
+        <v>0.2835366190021187</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1922394878068125</v>
+        <v>0.2835366190021187</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.905737349266235</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.7485799507128545, -0.06289474781961601]</t>
+          <t>[-4.685658712561353, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04534350699729717</v>
+        <v>0.3144850136150099</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04534350699729717</v>
+        <v>0.3144850136150099</v>
       </c>
       <c r="T4" t="n">
-        <v>17.12967424530293</v>
+        <v>14.24142355627182</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[12.828640808830961, 21.430707681774898]</t>
+          <t>[8.828708472433691, 19.65413864010994]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.207036858299261e-10</v>
+        <v>3.375149390638654e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.207036858299261e-10</v>
+        <v>3.375149390638654e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74192192192217</v>
+        <v>6.298798798798924</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2541541541541612</v>
+        <v>-6.172822822822944</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.22968968969017</v>
+        <v>18.77042042042079</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3341828931904993</v>
+        <v>0.2513309663404737</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3341828931904993</v>
+        <v>0.2513309663404737</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.003464753650144</v>
+        <v>5.993087654466473</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.870194581416378, 13.877124088716666]</t>
+          <t>[-3.5584492941189296, 15.544624603051876]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2621096921977866</v>
+        <v>0.2128295471596668</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2621096921977866</v>
+        <v>0.2128295471596668</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.390000417145388</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.515869383780277, 0.735868549489501]</t>
+          <t>[-4.402632347373083, 1.8616845354606175]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1305736229405345</v>
+        <v>0.4182523652320627</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1305736229405345</v>
+        <v>0.4182523652320627</v>
       </c>
       <c r="T5" t="n">
-        <v>16.20799025731808</v>
+        <v>18.50519372234027</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[11.519757723591916, 20.896222791044245]</t>
+          <t>[13.317229349581968, 23.693158095098564]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.155890716475483e-08</v>
+        <v>5.436770367239774e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.155890716475483e-08</v>
+        <v>5.436770367239774e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>9.657857857858058</v>
+        <v>5.089429429429529</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.973603603603665</v>
+        <v>-7.457777777777922</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.28931931931978</v>
+        <v>17.63663663663698</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4916906898512711</v>
+        <v>0.6228910307808755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4916906898512711</v>
+        <v>0.6228910307808755</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.893886729033369</v>
+        <v>2.761232330380596</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.838234631805612, 15.62600808987235]</t>
+          <t>[-4.979831669917651, 10.502296330678844]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3632861147343731</v>
+        <v>0.4762064493021634</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3632861147343731</v>
+        <v>0.4762064493021634</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.364842518017542</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.503290434216354, 0.77360539818127]</t>
+          <t>[-0.4780000834290776, 5.7988957489685475]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1360995336750737</v>
+        <v>0.09464958455957495</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1360995336750737</v>
+        <v>0.09464958455957495</v>
       </c>
       <c r="T6" t="n">
-        <v>14.23756176685144</v>
+        <v>11.10440170334883</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.506444480399317, 19.968679053303553]</t>
+          <t>[7.102252381091542, 15.106551025606112]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>9.09104878488165e-06</v>
+        <v>1.269796628733388e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>9.09104878488165e-06</v>
+        <v>1.269796628733388e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>9.556196196196396</v>
+        <v>14.51243243243272</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.126096096096159</v>
+        <v>1.940030030030067</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.23848848848895</v>
+        <v>27.08483483483537</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.999333260859812</v>
+        <v>0.01096004167473341</v>
       </c>
       <c r="I7" t="n">
-        <v>0.999333260859812</v>
+        <v>0.01096004167473341</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.1125719831489027</v>
+        <v>9.134254199355041</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-8.68458882014615, 8.909732786443957]</t>
+          <t>[1.1274915576403082, 17.141016841069774]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.9795521377047045</v>
+        <v>0.02628060438815583</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9795521377047045</v>
+        <v>0.02628060438815583</v>
       </c>
       <c r="P7" t="n">
-        <v>1.578658170272349</v>
+        <v>-2.390000417145388</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.5535002711445012, 4.710816611689199]</t>
+          <t>[-3.1447373909807728, -1.6352634433100026]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3154660619721119</v>
+        <v>8.562500908304571e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3154660619721119</v>
+        <v>8.562500908304571e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>13.188966481921</v>
+        <v>14.59895412399039</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.674177814959577, 17.70375514888243]</t>
+          <t>[10.531414949717263, 18.66649329826352]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.644249436136505e-07</v>
+        <v>4.669248765409861e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>4.644249436136505e-07</v>
+        <v>4.669248765409861e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>19.01073073073113</v>
+        <v>9.574174174174361</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.353853853853989</v>
+        <v>6.550750750750881</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.66760760760826</v>
+        <v>12.59759759759784</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2811399067216254</v>
+        <v>0.05609270237917585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2811399067216254</v>
+        <v>0.05609270237917585</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.230685193206327</v>
+        <v>8.584004845151902</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.264231789844752, 15.725602176257405]</t>
+          <t>[-0.4385951805716566, 17.60660487087546]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1929547691096469</v>
+        <v>0.06170535698352819</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1929547691096469</v>
+        <v>0.06170535698352819</v>
       </c>
       <c r="P8" t="n">
-        <v>3.050395269251351</v>
+        <v>-2.792526803190927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.05660527303765406, 6.044185265465048]</t>
+          <t>[-4.3020007508616995, -1.2830528555201552]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04599608931317678</v>
+        <v>0.0005406574194140035</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04599608931317678</v>
+        <v>0.0005406574194140035</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40942956056399</v>
+        <v>14.37822748478227</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.042686748587784, 18.776172372540195]</t>
+          <t>[9.56679280063458, 19.189662168929956]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.255734721629437e-06</v>
+        <v>2.927671090002804e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>8.255734721629437e-06</v>
+        <v>2.927671090002804e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>13.06352352352379</v>
+        <v>11.18666666666689</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.965785785785803</v>
+        <v>5.139819819819916</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.16126126126179</v>
+        <v>17.23351351351385</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1329556217977128</v>
+        <v>0.3914248584539687</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1329556217977128</v>
+        <v>0.3914248584539687</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.717911158888384</v>
+        <v>4.019146900340948</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.1605429127641376, 12.596365230540906]</t>
+          <t>[-3.750951199207117, 11.789244999889013]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1010130076175908</v>
+        <v>0.303064085441479</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1010130076175908</v>
+        <v>0.303064085441479</v>
       </c>
       <c r="P9" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.528342372016656, 4.67307976299743]</t>
+          <t>[-5.484422009870469, 0.7798948729632311]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0002546233157176836</v>
+        <v>0.1373732811513591</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0002546233157176836</v>
+        <v>0.1373732811513591</v>
       </c>
       <c r="T9" t="n">
-        <v>11.30170290665729</v>
+        <v>11.88125149426039</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.38494758005028, 15.2184582332643]</t>
+          <t>[7.74845449734638, 16.014048491174396]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.939609706295812e-07</v>
+        <v>6.388292805858953e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>5.939609706295812e-07</v>
+        <v>6.388292805858953e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>12.44992992993013</v>
+        <v>8.966266266266381</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.298778778778882</v>
+        <v>-2.972772772772808</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.60108108108139</v>
+        <v>20.90530530530557</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6283824600685213</v>
+        <v>0.3957251641940166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6283824600685213</v>
+        <v>0.3957251641940166</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.489018927738914</v>
+        <v>3.98962724415822</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.716406303659839, 12.694444159137667]</t>
+          <t>[-3.8361767438893075, 11.815431232205748]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.4492201532690536</v>
+        <v>0.3100034167726295</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4492201532690536</v>
+        <v>0.3100034167726295</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.905737349266235</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-6.044185265465048, 0.2327105669325773]</t>
+          <t>[-0.6603948521059619, 5.578764131599893]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0687445185950839</v>
+        <v>0.1193497585506822</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0687445185950839</v>
+        <v>0.1193497585506822</v>
       </c>
       <c r="T10" t="n">
-        <v>11.58278984055554</v>
+        <v>13.92277359417768</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.515711413150054, 16.649868267961022]</t>
+          <t>[9.797560651881827, 18.047986536473527]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.394482057861303e-05</v>
+        <v>2.034548063356567e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.394482057861303e-05</v>
+        <v>2.034548063356567e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>11.36732732732751</v>
+        <v>14.57617617617636</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.9103703703703871</v>
+        <v>2.685085085085118</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.64502502502542</v>
+        <v>26.4672672672676</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5203792414751287</v>
+        <v>0.3244808217880519</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5203792414751287</v>
+        <v>0.3244808217880519</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3.545979590155714</v>
+        <v>5.015971083017251</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.5627596372073675, 11.654718817518795]</t>
+          <t>[-4.077022146256717, 14.10896431229122]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3831199980073958</v>
+        <v>0.2724521302063909</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3831199980073958</v>
+        <v>0.2724521302063909</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.993789996213696</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-6.119658962848585, 0.1320789704211922]</t>
+          <t>[-1.0314738642416934, 5.245421968155931]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0600520766218966</v>
+        <v>0.1830829884335774</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0600520766218966</v>
+        <v>0.1830829884335774</v>
       </c>
       <c r="T11" t="n">
-        <v>10.83098682308361</v>
+        <v>13.67148366976032</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.499497673811643, 15.162475972355576]</t>
+          <t>[8.973658383856232, 18.36930895566441]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.150685220753573e-06</v>
+        <v>5.012730239783991e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>8.150685220753573e-06</v>
+        <v>5.012730239783991e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>11.71179179179198</v>
+        <v>15.91871871871892</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.5166966966967053</v>
+        <v>3.955705705705757</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.94028028028067</v>
+        <v>27.88173173173208</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05608344349777161</v>
+        <v>0.2903766014478318</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05608344349777161</v>
+        <v>0.2903766014478318</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.29289068721266</v>
+        <v>4.922758093550032</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.09771116312131412, 16.683492537546634]</t>
+          <t>[-2.7797546917540394, 12.625270878854103]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.05261352944640496</v>
+        <v>0.2045941082338749</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05261352944640496</v>
+        <v>0.2045941082338749</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.817684702318773</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-4.402632347373084, -1.2327370572644631]</t>
+          <t>[0.10692107129334705, 6.169974761104278]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.000836283117622294</v>
+        <v>0.04275942216228867</v>
       </c>
       <c r="S12" t="n">
-        <v>0.000836283117622294</v>
+        <v>0.04275942216228867</v>
       </c>
       <c r="T12" t="n">
-        <v>14.80291426321394</v>
+        <v>10.78106650765935</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.098170757817584, 19.50765776861029]</t>
+          <t>[6.385025607976795, 15.177107407341913]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9.848780169186e-08</v>
+        <v>1.124957474130106e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>9.848780169186e-08</v>
+        <v>1.124957474130106e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>11.02286286286304</v>
+        <v>11.98698698698714</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.822502502502577</v>
+        <v>0.4315315315315367</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.22322322322351</v>
+        <v>23.54244244244274</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2473097536530569</v>
+        <v>0.3809053546040929</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2473097536530569</v>
+        <v>0.3809053546040929</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.086591359121261</v>
+        <v>5.36232990245457</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.829215844813671, 13.002398563056193]</t>
+          <t>[-4.255693025488841, 14.98035283039798]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2021866887714769</v>
+        <v>0.2674262417158768</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2021866887714769</v>
+        <v>0.2674262417158768</v>
       </c>
       <c r="P13" t="n">
-        <v>2.761079429281119</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 5.836632597660316]</t>
+          <t>[-0.012578949563923025, 6.239158983705856]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.07726699849657903</v>
+        <v>0.05089012617975741</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07726699849657903</v>
+        <v>0.05089012617975741</v>
       </c>
       <c r="T13" t="n">
-        <v>12.33041913750053</v>
+        <v>16.24031015075461</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.090132922710714, 16.570705352290354]</t>
+          <t>[10.8011185683621, 21.679501733147127]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.090890717873719e-07</v>
+        <v>2.979534714508958e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>5.090890717873719e-07</v>
+        <v>2.979534714508958e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>13.77857857857881</v>
+        <v>12.08288288288304</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.746926926926959</v>
+        <v>0.1678178178178182</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.81023023023065</v>
+        <v>23.99794794794825</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1184803570756954</v>
+        <v>0.0406615981112477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1184803570756954</v>
+        <v>0.0406615981112477</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.535748345230017</v>
+        <v>7.308419958517177</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.3495569439408754, 17.42105363440091]</t>
+          <t>[0.08531234332583182, 14.531527573708521]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1316904482482477</v>
+        <v>0.04746492949946979</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1316904482482477</v>
+        <v>0.04746492949946979</v>
       </c>
       <c r="P14" t="n">
-        <v>2.283079345852042</v>
+        <v>2.710763631025427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 5.396369362923008]</t>
+          <t>[1.1887107337907317, 4.232816528260122]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1466378877837335</v>
+        <v>0.0008203395064918517</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1466378877837335</v>
+        <v>0.0008203395064918517</v>
       </c>
       <c r="T14" t="n">
-        <v>15.31842855549444</v>
+        <v>12.59675007728221</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[10.22134015106873, 20.415516959920154]</t>
+          <t>[8.634377117625148, 16.55912303693927]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.604505038306115e-07</v>
+        <v>7.859014417022081e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>2.604505038306115e-07</v>
+        <v>7.859014417022081e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>15.64852852852878</v>
+        <v>13.61721721721739</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.469249249249305</v>
+        <v>7.815515515515616</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.82780780780826</v>
+        <v>19.41891891891917</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3478624666322438</v>
+        <v>0.1394155767440899</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3478624666322438</v>
+        <v>0.1394155767440899</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.982716653774625</v>
+        <v>6.39743975830391</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.539908676214682, 14.50534198376393]</t>
+          <t>[-1.8573351872319153, 14.652214703839736]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2975636893463316</v>
+        <v>0.125546848557855</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2975636893463316</v>
+        <v>0.125546848557855</v>
       </c>
       <c r="P15" t="n">
-        <v>2.459184639746966</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.6603948521059619, 5.578764131599893]</t>
+          <t>[-5.6731062533293155, 0.33963163822592346]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1193497585506822</v>
+        <v>0.08074519348327103</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1193497585506822</v>
+        <v>0.08074519348327103</v>
       </c>
       <c r="T15" t="n">
-        <v>12.75164931143271</v>
+        <v>16.28301282231807</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.923575883594403, 17.579722739271027]</t>
+          <t>[11.795878364602478, 20.77014728003367]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.152835690967137e-06</v>
+        <v>3.557562022749039e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>3.152835690967137e-06</v>
+        <v>3.557562022749039e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>14.95959959959984</v>
+        <v>10.16496496496509</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.755715715715759</v>
+        <v>-1.29459459459461</v>
       </c>
       <c r="Z15" t="n">
-        <v>27.16348348348393</v>
+        <v>21.6245245245248</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1604104133988278</v>
+        <v>0.1136917433720129</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1604104133988278</v>
+        <v>0.1136917433720129</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.559664101692809</v>
+        <v>7.214023873023396</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.514038609717911, 15.633366813103528]</t>
+          <t>[-1.6096873805913363, 16.03773512663813]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1523184434662392</v>
+        <v>0.1065918005055679</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1523184434662392</v>
+        <v>0.1065918005055679</v>
       </c>
       <c r="P16" t="n">
-        <v>2.647868883205812</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.40881586082749966, 5.7045536272391235]</t>
+          <t>[1.125815985971116, 4.647921863869584]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.08785914919794058</v>
+        <v>0.001887723634947491</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08785914919794058</v>
+        <v>0.001887723634947491</v>
       </c>
       <c r="T16" t="n">
-        <v>14.10137658465164</v>
+        <v>14.07684604813777</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.341489113584704, 18.86126405571858]</t>
+          <t>[9.266676754783447, 18.887015341492095]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.49667883980942e-07</v>
+        <v>4.481298934155831e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>3.49667883980942e-07</v>
+        <v>4.481298934155831e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>14.22146146146169</v>
+        <v>12.94594594594611</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.263623623623662</v>
+        <v>6.233233233233312</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.17929929929972</v>
+        <v>19.65865865865891</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5817849451901699</v>
+        <v>0.4384571155427782</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5817849451901699</v>
+        <v>0.4384571155427782</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>3.26286863647008</v>
+        <v>4.341739778070314</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-5.226067755283634, 11.751805028223796]</t>
+          <t>[-4.311022027322817, 12.994501583463446]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.4428874431182717</v>
+        <v>0.3175985497715166</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4428874431182717</v>
+        <v>0.3175985497715166</v>
       </c>
       <c r="P17" t="n">
-        <v>2.408868841491273</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.729579074707539, 5.547316757690085]</t>
+          <t>[-6.088211588938778, 0.1509473947670772]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1291343576902291</v>
+        <v>0.06164654367062306</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1291343576902291</v>
+        <v>0.06164654367062306</v>
       </c>
       <c r="T17" t="n">
-        <v>12.32447559986678</v>
+        <v>12.82149203511445</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.876578129626431, 16.772373070107136]</t>
+          <t>[8.049284474746784, 17.59369959548211]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.30282136390214e-06</v>
+        <v>2.313234743311909e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.30282136390214e-06</v>
+        <v>2.313234743311909e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>15.15643643643668</v>
+        <v>11.31571571571586</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.878738738738784</v>
+        <v>-0.5753753753753834</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.43413413413458</v>
+        <v>23.2068068068071</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_6_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_6_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3084838516881472</v>
+        <v>0.3378738035179681</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3084838516881472</v>
+        <v>0.3378738035179681</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.803850128788172</v>
+        <v>5.389406163770809</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.169235451164731, 12.776935708741075]</t>
+          <t>[-3.7898577091554575, 14.568670036697076]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.231264555673405</v>
+        <v>0.2432032593484672</v>
       </c>
       <c r="O2" t="n">
-        <v>0.231264555673405</v>
+        <v>0.2432032593484672</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.58494764505431</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.597606065613892, 1.4277107755052718]</t>
+          <t>[-5.07560614904297, 1.1761317842268104]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.29497578537955</v>
+        <v>0.2154967896004074</v>
       </c>
       <c r="S2" t="n">
-        <v>0.29497578537955</v>
+        <v>0.2154967896004074</v>
       </c>
       <c r="T2" t="n">
-        <v>12.80377769712295</v>
+        <v>14.58528625895135</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.299006933732866, 17.308548460513034]</t>
+          <t>[9.394855549648554, 19.775716968254148]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.98946387270405e-07</v>
+        <v>9.964516769489506e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>7.98946387270405e-07</v>
+        <v>9.964516769489506e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>6.349189189189314</v>
+        <v>7.717417417417558</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.719309309309425</v>
+        <v>-4.655345345345431</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.41768768768805</v>
+        <v>20.09018018018055</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.294536930802904</v>
+        <v>0.1899720774022119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.294536930802904</v>
+        <v>0.1899720774022119</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.137904868018992</v>
+        <v>5.437420108904861</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.0069776735713223, 13.282787409609307]</t>
+          <t>[-1.8694053311597099, 12.744245548969433]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2104275023206255</v>
+        <v>0.1409065980662425</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2104275023206255</v>
+        <v>0.1409065980662425</v>
       </c>
       <c r="P3" t="n">
         <v>-1.597526594618233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.509553418666429, 1.3145002294299628]</t>
+          <t>[-4.358606023899353, 1.1635528346628865]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2750631490178175</v>
+        <v>0.2500233054528469</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2750631490178175</v>
+        <v>0.2500233054528469</v>
       </c>
       <c r="T3" t="n">
-        <v>12.00415625450345</v>
+        <v>12.66922940377073</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.280562694352515, 16.727749814654377]</t>
+          <t>[8.428064330641927, 16.91039447689953]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.194149228644363e-06</v>
+        <v>2.950745681129519e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>6.194149228644363e-06</v>
+        <v>2.950745681129519e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>6.399579579579708</v>
+        <v>6.323303303303419</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.265795795795896</v>
+        <v>-4.605555555555638</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.06495495495531</v>
+        <v>17.25216216216248</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4044655740108842</v>
+        <v>0.5138475553008939</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4044655740108842</v>
+        <v>0.5138475553008939</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.044065612834533</v>
+        <v>4.535551812423023</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.316092586008487, 14.404223811677554]</t>
+          <t>[-5.903731935863831, 14.974835560709877]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2835366190021187</v>
+        <v>0.3861843869930479</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2835366190021187</v>
+        <v>0.3861843869930479</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.572368695490387</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.685658712561353, 1.540921321580579]</t>
+          <t>[-5.188816695118277, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.3144850136150099</v>
+        <v>0.1948963573113218</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3144850136150099</v>
+        <v>0.1948963573113218</v>
       </c>
       <c r="T4" t="n">
-        <v>14.24142355627182</v>
+        <v>16.71362144467932</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.828708472433691, 19.65413864010994]</t>
+          <t>[11.12617960412964, 22.30106328522899]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.375149390638654e-06</v>
+        <v>2.869035147234911e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.375149390638654e-06</v>
+        <v>2.869035147234911e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>6.298798798798924</v>
+        <v>8.115735735735882</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.172822822822944</v>
+        <v>-4.306816816816895</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.77042042042079</v>
+        <v>20.53828828828866</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2513309663404737</v>
+        <v>0.5328819452263001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2513309663404737</v>
+        <v>0.5328819452263001</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.993087654466473</v>
+        <v>4.04070982924902</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.5584492941189296, 15.544624603051876]</t>
+          <t>[-5.145130298923019, 13.22654995742106]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2128295471596668</v>
+        <v>0.380342230081349</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2128295471596668</v>
+        <v>0.380342230081349</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.402632347373083, 1.8616845354606175]</t>
+          <t>[-4.685658712561353, 1.566079220708425]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.4182523652320627</v>
+        <v>0.3202584547065244</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4182523652320627</v>
+        <v>0.3202584547065244</v>
       </c>
       <c r="T5" t="n">
-        <v>18.50519372234027</v>
+        <v>12.28888852854162</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[13.317229349581968, 23.693158095098564]</t>
+          <t>[7.109144594281759, 17.468632462801473]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.436770367239774e-09</v>
+        <v>1.916359158826708e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.436770367239774e-09</v>
+        <v>1.916359158826708e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>5.089429429429529</v>
+        <v>6.173933933934048</v>
       </c>
       <c r="Y5" t="n">
-        <v>-7.457777777777922</v>
+        <v>-6.198828828828937</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.63663663663698</v>
+        <v>18.54669669669703</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6228910307808755</v>
+        <v>0.06220105442650625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6228910307808755</v>
+        <v>0.06220105442650625</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.761232330380596</v>
+        <v>9.4754658931229</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.979831669917651, 10.502296330678844]</t>
+          <t>[-0.9256171923135419, 19.87654897855934]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4762064493021634</v>
+        <v>0.07314140116389467</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4762064493021634</v>
+        <v>0.07314140116389467</v>
       </c>
       <c r="P6" t="n">
-        <v>2.660447832769735</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4780000834290776, 5.7988957489685475]</t>
+          <t>[-4.402632347373083, -1.0314738642416943]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.09464958455957495</v>
+        <v>0.00220870931129391</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09464958455957495</v>
+        <v>0.00220870931129391</v>
       </c>
       <c r="T6" t="n">
-        <v>11.10440170334883</v>
+        <v>14.85512868697105</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.102252381091542, 15.106551025606112]</t>
+          <t>[9.393677545306645, 20.316579828635447]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.269796628733388e-06</v>
+        <v>1.843737193363282e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.269796628733388e-06</v>
+        <v>1.843737193363282e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>14.51243243243272</v>
+        <v>10.75459459459479</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.940030030030067</v>
+        <v>4.082762762762839</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.08483483483537</v>
+        <v>17.42642642642674</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01096004167473341</v>
+        <v>0.1248309209777755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01096004167473341</v>
+        <v>0.1248309209777755</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>9.134254199355041</v>
+        <v>6.702589526128718</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[1.1274915576403082, 17.141016841069774]</t>
+          <t>[-1.7818513675670795, 15.187030419824517]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02628060438815583</v>
+        <v>0.1185855432281853</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02628060438815583</v>
+        <v>0.1185855432281853</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.390000417145388</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.1447373909807728, -1.6352634433100026]</t>
+          <t>[-4.767421884726853, 0.6163685286322318]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.562500908304571e-08</v>
+        <v>0.1274452869961133</v>
       </c>
       <c r="S7" t="n">
-        <v>8.562500908304571e-08</v>
+        <v>0.1274452869961133</v>
       </c>
       <c r="T7" t="n">
-        <v>14.59895412399039</v>
+        <v>13.0985737387538</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.531414949717263, 18.66649329826352]</t>
+          <t>[8.507331885098225, 17.689815592409374]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.669248765409861e-09</v>
+        <v>7.425326071786031e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.669248765409861e-09</v>
+        <v>7.425326071786031e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>9.574174174174361</v>
+        <v>8.215315315315465</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.550750750750881</v>
+        <v>-2.439699699699744</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.59759759759784</v>
+        <v>18.87033033033067</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05609270237917585</v>
+        <v>0.2512465429272837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05609270237917585</v>
+        <v>0.2512465429272837</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>8.584004845151902</v>
+        <v>6.518313547602239</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.4385951805716566, 17.60660487087546]</t>
+          <t>[-3.2860971416571987, 16.322724236861678]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06170535698352819</v>
+        <v>0.1872807103124474</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06170535698352819</v>
+        <v>0.1872807103124474</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.792526803190927</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.3020007508616995, -1.2830528555201552]</t>
+          <t>[-5.987579992427394, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0005406574194140035</v>
+        <v>0.04817708313448033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0005406574194140035</v>
+        <v>0.04817708313448033</v>
       </c>
       <c r="T8" t="n">
-        <v>14.37822748478227</v>
+        <v>15.66001732765316</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.56679280063458, 19.189662168929956]</t>
+          <t>[10.261570060171522, 21.058464595134794]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.927671090002804e-07</v>
+        <v>5.344824316466656e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.927671090002804e-07</v>
+        <v>5.344824316466656e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>11.18666666666689</v>
+        <v>11.89975975975998</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.139819819819916</v>
+        <v>0.09957957957958108</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.23351351351385</v>
+        <v>23.69993993994037</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3914248584539687</v>
+        <v>0.08570474709728004</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3914248584539687</v>
+        <v>0.08570474709728004</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.019146900340948</v>
+        <v>7.942599448712505</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.750951199207117, 11.789244999889013]</t>
+          <t>[-1.4109854348853084, 17.296184332310318]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.303064085441479</v>
+        <v>0.09410201366588455</v>
       </c>
       <c r="O9" t="n">
-        <v>0.303064085441479</v>
+        <v>0.09410201366588455</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.484422009870469, 0.7798948729632311]</t>
+          <t>[-4.629053439523698, -0.8302106712189254]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1373732811513591</v>
+        <v>0.005839186327490475</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1373732811513591</v>
+        <v>0.005839186327490475</v>
       </c>
       <c r="T9" t="n">
-        <v>11.88125149426039</v>
+        <v>13.52383492513203</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.74845449734638, 16.014048491174396]</t>
+          <t>[8.5996831401449, 18.447986710119164]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.388292805858953e-07</v>
+        <v>1.539438472031307e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>6.388292805858953e-07</v>
+        <v>1.539438472031307e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>8.966266266266381</v>
+        <v>10.62192192192209</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.972772772772808</v>
+        <v>3.230630630630688</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.90530530530557</v>
+        <v>18.01321321321349</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3957251641940166</v>
+        <v>0.156607768317095</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3957251641940166</v>
+        <v>0.156607768317095</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.98962724415822</v>
+        <v>5.478352484158396</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.8361767438893075, 11.815431232205748]</t>
+          <t>[-1.8481037315404691, 12.804808699857261]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3100034167726295</v>
+        <v>0.1390437607319592</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3100034167726295</v>
+        <v>0.1390437607319592</v>
       </c>
       <c r="P10" t="n">
-        <v>2.459184639746966</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6603948521059619, 5.578764131599893]</t>
+          <t>[-5.868079971570123, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1193497585506822</v>
+        <v>0.07648912524034301</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1193497585506822</v>
+        <v>0.07648912524034301</v>
       </c>
       <c r="T10" t="n">
-        <v>13.92277359417768</v>
+        <v>12.60870189298432</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.797560651881827, 18.047986536473527]</t>
+          <t>[8.678950847581998, 16.538452938386644]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.034548063356567e-08</v>
+        <v>6.414713582536535e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>2.034548063356567e-08</v>
+        <v>6.414713582536535e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>14.57617617617636</v>
+        <v>10.81771771771789</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.685085085085118</v>
+        <v>-1.199249249249267</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.4672672672676</v>
+        <v>22.83468468468504</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3244808217880519</v>
+        <v>0.2002605738197311</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3244808217880519</v>
+        <v>0.2002605738197311</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.015971083017251</v>
+        <v>6.088848054142062</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.077022146256717, 14.10896431229122]</t>
+          <t>[-2.5400737805013787, 14.717769888785503]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2724521302063909</v>
+        <v>0.1621469752743649</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2724521302063909</v>
+        <v>0.1621469752743649</v>
       </c>
       <c r="P11" t="n">
-        <v>2.106974051957119</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.0314738642416934, 5.245421968155931]</t>
+          <t>[-0.779894872963232, 5.497000959434392]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1830829884335774</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1830829884335774</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="T11" t="n">
-        <v>13.67148366976032</v>
+        <v>13.47125976821517</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.973658383856232, 18.36930895566441]</t>
+          <t>[8.711047584856612, 18.231471951573734]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.012730239783991e-07</v>
+        <v>8.692367099438769e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>5.012730239783991e-07</v>
+        <v>8.692367099438769e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>15.91871871871892</v>
+        <v>15.27207207207231</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.955705705705757</v>
+        <v>3.059309309309359</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.88173173173208</v>
+        <v>27.48483483483527</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2903766014478318</v>
+        <v>0.4314293406408917</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2903766014478318</v>
+        <v>0.4314293406408917</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.922758093550032</v>
+        <v>4.96104818495508</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.7797546917540394, 12.625270878854103]</t>
+          <t>[-4.82655788839208, 14.748654258302238]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2045941082338749</v>
+        <v>0.312764052856529</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2045941082338749</v>
+        <v>0.312764052856529</v>
       </c>
       <c r="P12" t="n">
-        <v>3.138447916198813</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.10692107129334705, 6.169974761104278]</t>
+          <t>[-0.48428955821104047, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.04275942216228867</v>
+        <v>0.09552586427299814</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04275942216228867</v>
+        <v>0.09552586427299814</v>
       </c>
       <c r="T12" t="n">
-        <v>10.78106650765935</v>
+        <v>15.19475384492812</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.385025607976795, 15.177107407341913]</t>
+          <t>[9.822439761130202, 20.567067928726043]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.124957474130106e-05</v>
+        <v>8.78978371643413e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.124957474130106e-05</v>
+        <v>8.78978371643413e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>11.98698698698714</v>
+        <v>14.14624624624647</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4315315315315367</v>
+        <v>1.957957957957987</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.54244244244274</v>
+        <v>26.33453453453495</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3809053546040929</v>
+        <v>0.1237856158436025</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3809053546040929</v>
+        <v>0.1237856158436025</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.36232990245457</v>
+        <v>7.356269831995899</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.255693025488841, 14.98035283039798]</t>
+          <t>[-2.0339224821013993, 16.746462146093197]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2674262417158768</v>
+        <v>0.121605455482886</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2674262417158768</v>
+        <v>0.121605455482886</v>
       </c>
       <c r="P13" t="n">
-        <v>3.113290017070967</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.012578949563923025, 6.239158983705856]</t>
+          <t>[-0.32076321388003937, 5.7674483750587395]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05089012617975741</v>
+        <v>0.07826671287038067</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05089012617975741</v>
+        <v>0.07826671287038067</v>
       </c>
       <c r="T13" t="n">
-        <v>16.24031015075461</v>
+        <v>14.38176192257957</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.8011185683621, 21.679501733147127]</t>
+          <t>[9.397432389343532, 19.366091455815617]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.979534714508958e-07</v>
+        <v>5.942888625654064e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>2.979534714508958e-07</v>
+        <v>5.942888625654064e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>12.08288288288304</v>
+        <v>13.85255255255277</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1678178178178182</v>
+        <v>2.006906906906938</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.99794794794825</v>
+        <v>25.6981981981986</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0406615981112477</v>
+        <v>0.3696463766071001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0406615981112477</v>
+        <v>0.3696463766071001</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.308419958517177</v>
+        <v>4.780556106837194</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.08531234332583182, 14.531527573708521]</t>
+          <t>[-4.019900823387053, 13.58101303706144]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04746492949946979</v>
+        <v>0.2797354263164449</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04746492949946979</v>
+        <v>0.2797354263164449</v>
       </c>
       <c r="P14" t="n">
-        <v>2.710763631025427</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1887107337907317, 4.232816528260122]</t>
+          <t>[-0.3018947895341544, 5.97500104286347]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0008203395064918517</v>
+        <v>0.07535832258796926</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0008203395064918517</v>
+        <v>0.07535832258796926</v>
       </c>
       <c r="T14" t="n">
-        <v>12.59675007728221</v>
+        <v>13.2518902469725</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.634377117625148, 16.55912303693927]</t>
+          <t>[8.511811713217213, 17.991968780727777]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.859014417022081e-08</v>
+        <v>1.099111308189293e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>7.859014417022081e-08</v>
+        <v>1.099111308189293e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>13.61721721721739</v>
+        <v>13.41201201201222</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.815515515515616</v>
+        <v>1.19924924924927</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.41891891891917</v>
+        <v>25.62477477477518</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1394155767440899</v>
+        <v>0.2204394821258397</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1394155767440899</v>
+        <v>0.2204394821258397</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.39743975830391</v>
+        <v>5.117835283746587</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.8573351872319153, 14.652214703839736]</t>
+          <t>[-2.6791089807370625, 12.914779548230237]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.125546848557855</v>
+        <v>0.1928368784227816</v>
       </c>
       <c r="O15" t="n">
-        <v>0.125546848557855</v>
+        <v>0.1928368784227816</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.666737307551696</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.6731062533293155, 0.33963163822592346]</t>
+          <t>[-0.7170001251436169, 5.559895707254008]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.08074519348327103</v>
+        <v>0.1271977377412374</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08074519348327103</v>
+        <v>0.1271977377412374</v>
       </c>
       <c r="T15" t="n">
-        <v>16.28301282231807</v>
+        <v>12.87318973538178</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[11.795878364602478, 20.77014728003367]</t>
+          <t>[8.748027664488902, 16.998351806274655]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.557562022749039e-09</v>
+        <v>1.176164572402882e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.557562022749039e-09</v>
+        <v>1.176164572402882e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>10.16496496496509</v>
+        <v>15.02732732732756</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.29459459459461</v>
+        <v>2.814564564564609</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.6245245245248</v>
+        <v>27.24009009009052</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1136917433720129</v>
+        <v>0.2486568112860886</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1136917433720129</v>
+        <v>0.2486568112860886</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>7.214023873023396</v>
+        <v>6.408299215268158</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.6096873805913363, 16.03773512663813]</t>
+          <t>[-2.7161970323077895, 15.532795462844106]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1065918005055679</v>
+        <v>0.1640853898394783</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1065918005055679</v>
+        <v>0.1640853898394783</v>
       </c>
       <c r="P16" t="n">
-        <v>2.88686892492035</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.125815985971116, 4.647921863869584]</t>
+          <t>[-0.10692107129334616, 6.157395811540355]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.001887723634947491</v>
+        <v>0.0579964450881878</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001887723634947491</v>
+        <v>0.0579964450881878</v>
       </c>
       <c r="T16" t="n">
-        <v>14.07684604813777</v>
+        <v>16.02890620812509</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.266676754783447, 18.887015341492095]</t>
+          <t>[10.68969825578807, 21.368114160462117]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.481298934155831e-07</v>
+        <v>2.662841653844339e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.481298934155831e-07</v>
+        <v>2.662841653844339e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>12.94594594594611</v>
+        <v>12.67777777777798</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.233233233233312</v>
+        <v>0.4894894894894986</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.65865865865891</v>
+        <v>24.86606606606645</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4384571155427782</v>
+        <v>0.5217399008339539</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4384571155427782</v>
+        <v>0.5217399008339539</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>4.341739778070314</v>
+        <v>4.146521760014798</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-4.311022027322817, 12.994501583463446]</t>
+          <t>[-5.792951199841259, 14.085994719870854]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.3175985497715166</v>
+        <v>0.4052172393330644</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3175985497715166</v>
+        <v>0.4052172393330644</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.96863209708585</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-6.088211588938778, 0.1509473947670772]</t>
+          <t>[-0.6792632764518469, 5.597632555945778]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.06164654367062306</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06164654367062306</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="T17" t="n">
-        <v>12.82149203511445</v>
+        <v>11.88366808094191</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.049284474746784, 17.59369959548211]</t>
+          <t>[6.748533405978016, 17.01880275590581]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.313234743311909e-06</v>
+        <v>2.817839391799914e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>2.313234743311909e-06</v>
+        <v>2.817839391799914e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>11.31571571571586</v>
+        <v>14.88048048048071</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.5753753753753834</v>
+        <v>2.667717717717757</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.2068068068071</v>
+        <v>27.09324324324367</v>
       </c>
     </row>
   </sheetData>
